--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -324,10 +324,6 @@
   <si>
     <t>計件代碼</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y/N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撥款日</t>
@@ -507,40 +503,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AdjPerfEqAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjPerfReward</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjPerfAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjCntingCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>調整記號</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後換算業績</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>業調整後務報酬</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後業績金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後是否計件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PfItDetail</t>
@@ -1267,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1255,7 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1319,7 +1283,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1371,7 +1335,7 @@
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1406,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1424,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>62</v>
@@ -1436,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
-        <f t="shared" ref="A11:A44" si="0">A10+1</f>
+        <f t="shared" ref="A11:A40" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>63</v>
@@ -1499,10 +1463,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
@@ -1511,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1523,7 +1487,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>26</v>
@@ -1538,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>64</v>
@@ -1559,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
@@ -1577,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>34</v>
@@ -1589,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,10 +1562,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>25</v>
@@ -1613,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>65</v>
@@ -1655,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1664,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>67</v>
@@ -1676,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1685,7 +1649,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>68</v>
@@ -1721,7 +1685,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1730,7 +1694,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>70</v>
@@ -1787,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1796,10 +1760,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>25</v>
@@ -1811,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1820,7 +1784,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>73</v>
@@ -1835,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1865,7 +1829,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>75</v>
@@ -1901,20 +1865,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>107</v>
-      </c>
       <c r="D33" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="31">
         <v>8</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1923,13 +1887,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>96</v>
-      </c>
       <c r="D34" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="31">
         <v>8</v>
@@ -1943,20 +1907,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>98</v>
-      </c>
       <c r="D35" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="34">
         <v>1</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1965,10 +1929,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>25</v>
@@ -1978,7 +1942,7 @@
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1986,154 +1950,66 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="31">
-        <v>16</v>
-      </c>
-      <c r="F37" s="35">
-        <v>2</v>
-      </c>
-      <c r="G37" s="36"/>
+      <c r="B37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="31">
-        <v>16</v>
-      </c>
-      <c r="F38" s="35">
-        <v>2</v>
-      </c>
-      <c r="G38" s="36"/>
+      <c r="B38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="20">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="31">
-        <v>16</v>
-      </c>
-      <c r="F39" s="35">
-        <v>2</v>
-      </c>
-      <c r="G39" s="36"/>
+      <c r="B39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="29" t="s">
+      <c r="B40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="31">
-        <v>1</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="39">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="39">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="39">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="20">
+      <c r="E40" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2157,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -2183,7 +2059,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2197,10 +2073,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2230,7 +2106,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
@@ -2241,7 +2117,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>55</v>
@@ -2249,43 +2125,43 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfItDetail.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E080A22-AC77-4A88-A3B2-971EF87B60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -568,22 +578,26 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案 4.人工維護 5.保費檢核追回</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>還款類別</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND PerfDate = ,AND RepayType = ,AND PieceCode = </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:撥款(計件代碼變更)
+2:部分償還
+3:提前結案
+4:人工維護
+5:保費檢核追回</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -927,9 +941,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,6 +1034,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1055,6 +1086,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1230,11 +1278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1466,7 +1514,7 @@
         <v>136</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>25</v>
@@ -1475,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2030,7 +2078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2139,7 +2187,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
